--- a/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.2 CRONOGRAMA/U2T1-U2T2-U2T3.G1_SWI_NRC10519_CRONO_V2.xlsx
+++ b/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.2 CRONOGRAMA/U2T1-U2T2-U2T3.G1_SWI_NRC10519_CRONO_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Archivos Mateo\5to SEMESTRE\Ingeniería de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80156e5d58948c98/10519_G1_INGSWI/Proyecto_Final_G1/DOCUMENTACION/1. ELICITACION/1.2 CRONOGRAMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C2A98F0-6F90-4CD4-BD6C-968B220AB26A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9C2A98F0-6F90-4CD4-BD6C-968B220AB26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5D290F-51D6-4C6C-9B7F-7973196304A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{94D0F830-C079-4F87-8AB9-A724E65399E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D0F830-C079-4F87-8AB9-A724E65399E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t>REQ04: Carrusel de imágenes</t>
   </si>
   <si>
-    <t>Quinta reunión con el Team Scrum</t>
-  </si>
-  <si>
     <t>Actualización de Cronograma</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>73 Horas</t>
+  </si>
+  <si>
+    <t>Quinta reunión con el Team Scrum y con el Product Owner</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B4C004-CA72-4E5D-BD11-6FD4F44B7E1B}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1992,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
@@ -2206,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -2232,7 +2232,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -2284,13 +2284,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>20</v>
@@ -2311,13 +2311,13 @@
         <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
@@ -2332,16 +2332,16 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -2364,16 +2364,16 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2390,16 +2390,16 @@
         <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2416,16 +2416,16 @@
         <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2442,10 +2442,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="1">
         <v>6</v>
@@ -2465,13 +2465,13 @@
         <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
@@ -2492,10 +2492,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
@@ -2516,16 +2516,16 @@
         <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1">
         <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2542,16 +2542,16 @@
         <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2568,16 +2568,16 @@
         <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2591,16 +2591,16 @@
         <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
@@ -2617,13 +2617,13 @@
         <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1">
         <v>13</v>
@@ -2643,16 +2643,16 @@
         <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>15</v>
@@ -2672,16 +2672,16 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2698,13 +2698,13 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>15</v>
@@ -2718,19 +2718,19 @@
         <v>12</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>25</v>
@@ -2747,13 +2747,13 @@
         <v>55</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
@@ -2774,10 +2774,10 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
@@ -2798,16 +2798,16 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1">
         <v>20</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2824,16 +2824,16 @@
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2850,16 +2850,16 @@
         <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2876,10 +2876,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" s="1">
         <v>23</v>
@@ -2896,19 +2896,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>25</v>
@@ -2925,13 +2925,13 @@
         <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
@@ -2946,16 +2946,16 @@
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
@@ -2976,16 +2976,16 @@
         <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G48" s="1">
         <v>27</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3002,16 +3002,16 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3028,16 +3028,16 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3048,19 +3048,19 @@
         <v>12</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>15</v>
@@ -3074,19 +3074,19 @@
         <v>12</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>25</v>
@@ -3106,16 +3106,16 @@
         <v>39</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="1">
         <v>32</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3132,13 +3132,13 @@
         <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>15</v>
@@ -3152,16 +3152,16 @@
         <v>12</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" s="1">
         <v>34</v>
